--- a/outputs/1302var1.xlsx
+++ b/outputs/1302var1.xlsx
@@ -10,14 +10,14 @@
     <sheet name="rda_table" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rda_table!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rda_table!$A$1:$E$27</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>NAME</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Destroy 37 years after last access.</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Records documenting the generation of statistical reports based on computer-aided dispatch (CAD) data. Reports are generated for the Office of the Emergency Services Commissioner (OESC), for emergency service organisations and in response to FOI requests as well as for internal management reporting purposes. Statistics include call type frequencies as well as call answer and dispatch speed responses, etc. [For all other Reporting, see the General Retention and Disposal Authority for Records of Common Administrative Functions.]</t>
+  </si>
+  <si>
+    <t>Destroy 7 years after last access...</t>
   </si>
   <si>
     <t>1.3.1</t>
@@ -600,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -953,7 +962,7 @@
         <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -964,13 +973,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1058,8 +1067,25 @@
         <v>80</v>
       </c>
     </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E26"/>
+  <autoFilter ref="A1:E27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/outputs/1302var1.xlsx
+++ b/outputs/1302var1.xlsx
@@ -34,7 +34,7 @@
     <t>DISPOSAL ACTION</t>
   </si>
   <si>
-    <t>Emergency Services  Telecommunications Agency</t>
+    <t>Emergency Services Telecommunications Authority</t>
   </si>
   <si>
     <t>1302var1</t>
@@ -618,7 +618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="657.42578125" customWidth="1"/>
